--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -475,8 +475,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -521,8 +521,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -530,29 +537,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,75 +560,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,7 +576,83 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,84 +685,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -775,79 +841,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,15 +937,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -966,6 +957,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -977,26 +992,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1016,17 +1011,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,148 +1035,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1577,8 +1577,8 @@
   <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B23" sqref="$A19:$XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
@@ -1872,7 +1872,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" ht="16.8" spans="1:7">
       <c r="A19" s="8"/>
       <c r="B19" s="14"/>
       <c r="C19" s="7" t="s">
@@ -1885,7 +1885,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:7">
+    <row r="20" ht="34" spans="1:7">
       <c r="A20" s="8"/>
       <c r="B20" s="14"/>
       <c r="C20" s="7" t="s">
@@ -1898,7 +1898,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" ht="16.8" spans="1:7">
       <c r="A21" s="8"/>
       <c r="B21" s="14"/>
       <c r="C21" s="7" t="s">
@@ -1911,7 +1911,7 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" ht="16.8" spans="1:7">
       <c r="A22" s="8"/>
       <c r="B22" s="14"/>
       <c r="C22" s="7" t="s">
@@ -1924,7 +1924,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" ht="75" customHeight="1" spans="1:7">
+    <row r="23" ht="84" spans="1:7">
       <c r="A23" s="8"/>
       <c r="B23" s="15"/>
       <c r="C23" s="7" t="s">
@@ -1937,7 +1937,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" ht="75" customHeight="1" spans="1:7">
+    <row r="24" ht="51" spans="1:7">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
         <v>69</v>
@@ -1952,7 +1952,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" ht="75" customHeight="1" spans="1:7">
+    <row r="25" ht="17" spans="1:7">
       <c r="A25" s="8"/>
       <c r="B25" s="9" t="s">
         <v>72</v>
@@ -1969,7 +1969,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" ht="75" customHeight="1" spans="1:7">
+    <row r="26" ht="17" spans="1:7">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>76</v>
@@ -1984,7 +1984,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" ht="75" customHeight="1" spans="1:7">
+    <row r="27" ht="17" spans="1:7">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>79</v>
@@ -1999,7 +1999,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" ht="75" customHeight="1" spans="1:7">
+    <row r="28" ht="17" spans="1:7">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>82</v>

--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brty.liu/Documents/GitHub/tde/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E53634-0468-8A40-AA6D-F83FC1866F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27260" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
   <si>
     <t>Oracle TDE测试相关指标和功能模块</t>
   </si>
@@ -147,9 +153,6 @@
     <t>PDB的管理维护</t>
   </si>
   <si>
-    <t>数据库开启加密功能后，PDB的创建，插拔，克隆等功能测试</t>
-  </si>
-  <si>
     <t>用户管理</t>
   </si>
   <si>
@@ -202,9 +205,6 @@
   </si>
   <si>
     <t>在CDB和PDB创建新的表空间并加密</t>
-  </si>
-  <si>
-    <t>12.1.0.2 只能对新建的表空间加密</t>
   </si>
   <si>
     <t>非加密表空间转换</t>
@@ -467,19 +467,21 @@
   </si>
   <si>
     <t>数据库密码丢失，12c种主密钥和pdb密钥分别丢失或全部丢失后如何恢复；dump和rman备份集在密钥丢失情况下的恢复；密钥丢失后使用特殊工具恢复。</t>
+  </si>
+  <si>
+    <t>数据库开启加密功能后，PDB的创建，插拔，克隆等功能测试</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.1.0.2 只能对新建的表空间加密</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,151 +516,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,192 +539,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -932,282 +630,67 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1218,27 +701,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,62 +718,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1569,724 +990,726 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B23" sqref="$A19:$XFD23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="15.6696428571429" customWidth="1"/>
-    <col min="2" max="2" width="16.6696428571429" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="78.1696428571429" customWidth="1"/>
+    <col min="4" max="4" width="78.1640625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="78" customWidth="1"/>
-    <col min="7" max="7" width="37.6696428571429" customWidth="1"/>
+    <col min="7" max="7" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49.5" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="49.5" customHeight="1">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" ht="67" customHeight="1" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="67" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" ht="25" customHeight="1">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7" ht="25" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:7">
-      <c r="A5" s="8"/>
-      <c r="B5" s="6" t="s">
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" ht="25" customHeight="1">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="22"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:7">
-      <c r="A6" s="8"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" ht="25" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="22"/>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" ht="25" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="20"/>
+      <c r="E7" s="22"/>
       <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="8"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="7" t="s">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" ht="25" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="22"/>
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:7">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="7" t="s">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" ht="25" customHeight="1">
+      <c r="A9" s="16"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" ht="25" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:7">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="25" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:7">
-      <c r="A11" s="8"/>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="22"/>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" t="s">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="25" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:7">
-      <c r="A12" s="8"/>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="22"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" ht="25" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:7">
-      <c r="A13" s="8"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="22"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" ht="25" customHeight="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:7">
-      <c r="A14" s="8"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="22"/>
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" ht="25" customHeight="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:7">
-      <c r="A15" s="8"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="E15" s="22"/>
+      <c r="F15" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="25" customHeight="1">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:7">
-      <c r="A16" s="8"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="41.5" customHeight="1">
+      <c r="A17" s="16"/>
+      <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" ht="41.5" customHeight="1" spans="1:7">
-      <c r="A17" s="8"/>
-      <c r="B17" s="12" t="s">
+      <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="E17" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="25" customHeight="1">
+      <c r="A18" s="16"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="22" t="s">
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:7">
-      <c r="A18" s="8"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" ht="16.8" spans="1:7">
-      <c r="A19" s="8"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7" t="s">
+      <c r="E19" s="25"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" ht="34" spans="1:7">
-      <c r="A20" s="8"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7" t="s">
+      <c r="E20" s="25"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="16.8" spans="1:7">
-      <c r="A21" s="8"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7" t="s">
+      <c r="E21" s="25"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="15">
+      <c r="A22" s="16"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-    </row>
-    <row r="22" ht="16.8" spans="1:7">
-      <c r="A22" s="8"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="7" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="75">
+      <c r="A23" s="16"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" ht="84" spans="1:7">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="7" t="s">
+      <c r="E23" s="25"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="16"/>
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="23"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" ht="51" spans="1:7">
-      <c r="A24" s="8"/>
-      <c r="B24" s="6" t="s">
+      <c r="D24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="15">
+      <c r="A25" s="16"/>
+      <c r="B25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="C25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="24"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-    </row>
-    <row r="25" ht="17" spans="1:7">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="C26" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-    </row>
-    <row r="26" ht="17" spans="1:7">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="E26" s="25"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="16"/>
+      <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="C27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" ht="17" spans="1:7">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15">
+      <c r="A28" s="16"/>
+      <c r="B28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="C28" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" ht="17" spans="1:7">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="25" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:7">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="E29" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="25" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="D30" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:7">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7" t="s">
+      <c r="E30" s="25"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="25" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="C31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="23"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:7">
-      <c r="A31" s="8"/>
-      <c r="B31" s="6" t="s">
+      <c r="D31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="E31" s="25"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="25" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:7">
-      <c r="A32" s="8"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7" t="s">
+      <c r="E32" s="25"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="25" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="C33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E32" s="23"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:7">
-      <c r="A33" s="8"/>
-      <c r="B33" s="6" t="s">
+      <c r="D33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="E33" s="25"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="25" customHeight="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E33" s="23"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:7">
-      <c r="A34" s="8"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="7" t="s">
+      <c r="E34" s="25"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="25" customHeight="1">
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D35" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:7">
-      <c r="A35" s="8"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7" t="s">
+      <c r="E35" s="25"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="25" customHeight="1">
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D36" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="7" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="25" customHeight="1">
+      <c r="A37" s="16"/>
+      <c r="B37" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="C37" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="24"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:7">
-      <c r="A37" s="8"/>
-      <c r="B37" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="E37" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="25" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E37" s="19" t="s">
+      <c r="C38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:7">
-      <c r="A38" s="8"/>
-      <c r="B38" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+    </row>
+    <row r="39" spans="1:7" ht="25" customHeight="1">
+      <c r="A39" s="16"/>
+      <c r="B39" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:7">
-      <c r="A39" s="8"/>
-      <c r="B39" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="E39" s="23"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="1:7" ht="25" customHeight="1">
+      <c r="A40" s="16"/>
+      <c r="B40" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:7">
-      <c r="A40" s="8"/>
-      <c r="B40" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="E40" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="1:7" ht="25" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="C41" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:7">
-      <c r="A41" s="8"/>
-      <c r="B41" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="E41" s="22"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="1:7" ht="25" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:7">
-      <c r="A42" s="8"/>
-      <c r="B42" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="E42" s="22"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" ht="25" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:7">
-      <c r="A43" s="8"/>
-      <c r="B43" s="16" t="s">
+      <c r="D43" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+    </row>
+    <row r="44" spans="1:7" ht="25" customHeight="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="C44" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="E43" s="21"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:7">
-      <c r="A44" s="8"/>
-      <c r="B44" s="16" t="s">
+      <c r="D44" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="E44" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+    </row>
+    <row r="45" spans="1:7" ht="25" customHeight="1">
+      <c r="A45" s="16"/>
+      <c r="B45" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="C45" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:7">
-      <c r="A45" s="8"/>
-      <c r="B45" s="16" t="s">
+      <c r="D45" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="1:7" ht="25" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D45" s="17" t="s">
+      <c r="C46" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:7">
-      <c r="A46" s="8"/>
-      <c r="B46" s="16" t="s">
+      <c r="D46" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:1">
-      <c r="A47" s="8"/>
-    </row>
-    <row r="48" ht="38" customHeight="1" spans="1:1">
-      <c r="A48" s="8"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+    </row>
+    <row r="47" spans="1:7" ht="25" customHeight="1">
+      <c r="A47" s="16"/>
+    </row>
+    <row r="48" spans="1:7" ht="38" customHeight="1">
+      <c r="A48" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2307,8 +1730,8 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E44:E46"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brty.liu/Documents/GitHub/tde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E53634-0468-8A40-AA6D-F83FC1866F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5B585-6BFC-4245-96F7-386D4ABA7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -271,9 +271,6 @@
     <t>数据库开启加密后数据库的读写效率，测试DML和SELECT查询，针对DML的性能测试，对比单条语句对逻辑读的消耗，对比批量DML，如1000条语句，对于DML时间的影响。针对SELECT查询的影响。</t>
   </si>
   <si>
-    <t>加密与DBLINK</t>
-  </si>
-  <si>
     <t>加密后测试数据库之前的DBLINK</t>
   </si>
   <si>
@@ -290,9 +287,6 @@
   </si>
   <si>
     <t>数据库开启加密后IN-Memory功能的测试</t>
-  </si>
-  <si>
-    <t>加密与物化视图</t>
   </si>
   <si>
     <t>加密物化视图的测试</t>
@@ -474,6 +468,14 @@
   </si>
   <si>
     <t>12.1.0.2 只能对新建的表空间加密</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密与物化视图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密与DBLINK</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -636,7 +638,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -676,6 +678,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -718,8 +723,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1014,28 +1019,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="67" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="25" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -1061,7 +1066,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1073,7 +1078,7 @@
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="22" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -1082,8 +1087,8 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -1092,30 +1097,30 @@
       <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="23"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="22"/>
+      <c r="E6" s="23"/>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="25" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -1124,42 +1129,42 @@
       <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="22"/>
+      <c r="E7" s="23"/>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="23"/>
       <c r="F8" t="s">
         <v>29</v>
       </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="25" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="22"/>
+      <c r="D9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="23"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="25" customHeight="1">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1169,14 +1174,14 @@
       <c r="D10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="25" customHeight="1">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
@@ -1186,15 +1191,15 @@
       <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="23"/>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="25" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1203,70 +1208,70 @@
       <c r="D12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="22"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="25" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="17"/>
+      <c r="A13" s="17"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="27"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="25" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="22"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="25" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="27" t="s">
-        <v>137</v>
+      <c r="E15" s="23"/>
+      <c r="F15" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="25" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
         <v>49</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="27" t="s">
-        <v>137</v>
+      <c r="E16" s="24"/>
+      <c r="F16" s="13" t="s">
+        <v>135</v>
       </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="41.5" customHeight="1">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6" t="s">
         <v>51</v>
       </c>
@@ -1276,14 +1281,14 @@
       <c r="D17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="25" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="25" customHeight="1">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="8"/>
       <c r="C18" s="4" t="s">
         <v>55</v>
@@ -1291,12 +1296,12 @@
       <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
         <v>57</v>
@@ -1304,12 +1309,12 @@
       <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
         <v>59</v>
@@ -1317,12 +1322,12 @@
       <c r="D20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
         <v>61</v>
@@ -1330,12 +1335,12 @@
       <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="8"/>
       <c r="C22" s="4" t="s">
         <v>63</v>
@@ -1343,12 +1348,12 @@
       <c r="D22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="75">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="9"/>
       <c r="C23" s="4" t="s">
         <v>65</v>
@@ -1356,12 +1361,12 @@
       <c r="D23" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="25"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="45">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
@@ -1371,345 +1376,345 @@
       <c r="D24" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="16"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="25" t="s">
         <v>72</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>73</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="26"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="16"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="17"/>
+      <c r="B27" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="26"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" ht="25" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="17"/>
+      <c r="B29" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E29" s="25" t="s">
         <v>84</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="24" t="s">
-        <v>86</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" ht="25" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E30" s="25"/>
+        <v>86</v>
+      </c>
+      <c r="E30" s="26"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" ht="25" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17" t="s">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="25"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" ht="25" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="E32" s="26"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="25" customHeight="1">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17" t="s">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="25" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="25"/>
+        <v>96</v>
+      </c>
+      <c r="E34" s="26"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="25" customHeight="1">
-      <c r="A35" s="16"/>
-      <c r="B35" s="17"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="25"/>
+        <v>98</v>
+      </c>
+      <c r="E35" s="26"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="25" customHeight="1">
-      <c r="A36" s="16"/>
-      <c r="B36" s="17"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="26"/>
+        <v>100</v>
+      </c>
+      <c r="E36" s="27"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="25" customHeight="1">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="E37" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="25" customHeight="1">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E38" s="22"/>
+      <c r="E38" s="23"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="25" customHeight="1">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="24"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="25" customHeight="1">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="25" customHeight="1">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="25" customHeight="1">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E42" s="22"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="25" customHeight="1">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="24"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="25" customHeight="1">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="E44" s="22" t="s">
         <v>127</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>129</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="25" customHeight="1">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="23"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="25" customHeight="1">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="24"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7" ht="25" customHeight="1">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
     </row>
     <row r="48" spans="1:7" ht="38" customHeight="1">
-      <c r="A48" s="16"/>
+      <c r="A48" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="16">

--- a/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
+++ b/Oracle TDE测试相关指标和功能模块_云和恩墨_皇甫晓飞20220218.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brty.liu/Documents/GitHub/tde/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5B585-6BFC-4245-96F7-386D4ABA7DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28060" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>Oracle TDE测试相关指标和功能模块</t>
   </si>
@@ -153,6 +147,9 @@
     <t>PDB的管理维护</t>
   </si>
   <si>
+    <t>数据库开启加密功能后，PDB的创建，插拔，克隆等功能测试</t>
+  </si>
+  <si>
     <t>用户管理</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>在CDB和PDB创建新的表空间并加密</t>
+  </si>
+  <si>
+    <t>12.1.0.2 只能对新建的表空间加密</t>
   </si>
   <si>
     <t>非加密表空间转换</t>
@@ -271,6 +271,9 @@
     <t>数据库开启加密后数据库的读写效率，测试DML和SELECT查询，针对DML的性能测试，对比单条语句对逻辑读的消耗，对比批量DML，如1000条语句，对于DML时间的影响。针对SELECT查询的影响。</t>
   </si>
   <si>
+    <t>加密与DBLINK</t>
+  </si>
+  <si>
     <t>加密后测试数据库之前的DBLINK</t>
   </si>
   <si>
@@ -289,6 +292,9 @@
     <t>数据库开启加密后IN-Memory功能的测试</t>
   </si>
   <si>
+    <t>加密与物化视图</t>
+  </si>
+  <si>
     <t>加密物化视图的测试</t>
   </si>
   <si>
@@ -461,29 +467,19 @@
   </si>
   <si>
     <t>数据库密码丢失，12c种主密钥和pdb密钥分别丢失或全部丢失后如何恢复；dump和rman备份集在密钥丢失情况下的恢复；密钥丢失后使用特殊工具恢复。</t>
-  </si>
-  <si>
-    <t>数据库开启加密功能后，PDB的创建，插拔，克隆等功能测试</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>12.1.0.2 只能对新建的表空间加密</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密与物化视图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>加密与DBLINK</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,21 +514,164 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="4"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,18 +680,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -632,31 +957,294 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -669,6 +1257,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -678,33 +1269,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -723,21 +1287,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -995,726 +1600,726 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.6607142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.6607142857143" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="78.1640625" customWidth="1"/>
+    <col min="4" max="4" width="78.1607142857143" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="78" customWidth="1"/>
-    <col min="7" max="7" width="37.6640625" customWidth="1"/>
+    <col min="7" max="7" width="37.6607142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" ht="49.5" customHeight="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="67" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" ht="67" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1">
-      <c r="A4" s="16" t="s">
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="22"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="25" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="4" t="s">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" ht="25" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="22"/>
       <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" ht="25" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="4" t="s">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="22"/>
       <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" ht="25" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="4" t="s">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="8"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="23"/>
+      <c r="F16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" ht="41.5" customHeight="1" spans="1:7">
+      <c r="A17" s="8"/>
+      <c r="B17" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="8"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="25"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="16.8" spans="1:7">
+      <c r="A19" s="8"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="25"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" ht="34" spans="1:7">
+      <c r="A20" s="8"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" ht="16.8" spans="1:7">
+      <c r="A21" s="8"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" ht="16.8" spans="1:7">
+      <c r="A22" s="8"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" ht="84" spans="1:7">
+      <c r="A23" s="8"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" ht="51" spans="1:7">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" ht="17" spans="1:7">
+      <c r="A25" s="8"/>
+      <c r="B25" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" ht="17" spans="1:7">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="17" spans="1:7">
+      <c r="A27" s="8"/>
+      <c r="B27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="25"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" ht="17" spans="1:7">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="25"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="25"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="25"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="23"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="8"/>
+      <c r="B43" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="8"/>
+      <c r="B44" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="8"/>
+      <c r="B45" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" ht="25" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" ht="25" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" ht="25" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" ht="25" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" ht="25" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" ht="25" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="13" t="s">
+      <c r="E45" s="22"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="8"/>
+      <c r="B46" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" ht="25" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="41.5" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="25" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="26"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15">
-      <c r="A19" s="17"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="26"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="30">
-      <c r="A20" s="17"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" ht="15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:7" ht="15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" ht="75">
-      <c r="A23" s="17"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" ht="45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="1:7" ht="15">
-      <c r="A25" s="17"/>
-      <c r="B25" s="28" t="s">
+      <c r="C46" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:7" ht="15">
-      <c r="A26" s="17"/>
-      <c r="B26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" s="26"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="15">
-      <c r="A27" s="17"/>
-      <c r="B27" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="1:7" ht="15">
-      <c r="A28" s="17"/>
-      <c r="B28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="1:7" ht="25" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="1:7" ht="25" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="26"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:7" ht="25" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7" ht="25" customHeight="1">
-      <c r="A33" s="17"/>
-      <c r="B33" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="26"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7" ht="25" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" ht="25" customHeight="1">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="1:7" ht="25" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="1:7" ht="25" customHeight="1">
-      <c r="A37" s="17"/>
-      <c r="B37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" spans="1:7" ht="25" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" spans="1:7" ht="25" customHeight="1">
-      <c r="A39" s="17"/>
-      <c r="B39" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" ht="25" customHeight="1">
-      <c r="A40" s="17"/>
-      <c r="B40" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="25" customHeight="1">
-      <c r="A41" s="17"/>
-      <c r="B41" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="23"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="25" customHeight="1">
-      <c r="A42" s="17"/>
-      <c r="B42" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="25" customHeight="1">
-      <c r="A43" s="17"/>
-      <c r="B43" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="25" customHeight="1">
-      <c r="A44" s="17"/>
-      <c r="B44" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E44" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="25" customHeight="1">
-      <c r="A45" s="17"/>
-      <c r="B45" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45" s="23"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="25" customHeight="1">
-      <c r="A46" s="17"/>
-      <c r="B46" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="25" customHeight="1">
-      <c r="A47" s="17"/>
-    </row>
-    <row r="48" spans="1:7" ht="38" customHeight="1">
-      <c r="A48" s="17"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:1">
+      <c r="A47" s="8"/>
+    </row>
+    <row r="48" ht="38" customHeight="1" spans="1:1">
+      <c r="A48" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1735,8 +2340,8 @@
     <mergeCell ref="E40:E43"/>
     <mergeCell ref="E44:E46"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>